--- a/pred_ohlcv/54_21/2020-01-16 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-653021.0761655526</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-549934.2423655527</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-790541.4481655527</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-767988.5822655527</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-764060.3906655527</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1022064.032465553</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-764951.4287655528</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-728558.9506655529</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-899801.1277655528</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-883336.5152655529</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-883202.9911655529</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-714570.9488655528</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-772589.4611655526</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-770914.9458655526</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-770398.2881655527</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-768398.2881655527</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-587855.2646655526</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-598993.0761655526</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-597243.0761655526</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-653021.0761655526</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-582335.0761655526</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-547848.3626655526</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-568002.3486655527</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-591283.4858655527</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-565840.6511655527</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-579069.6510655527</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-550839.2423655527</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-549934.2423655527</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-790541.4481655527</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-769088.5822655527</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-763924.3906655527</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-740776.4463655527</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1022064.032465553</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-716426.0310655527</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-724057.9323655529</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-764951.4287655528</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-738925.3120655529</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-723125.3120655529</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-723798.9506655529</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-734338.9506655529</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-728558.9506655529</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-718558.9506655529</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-718808.9506655529</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-713928.1277655528</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-883928.1277655528</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-899801.1277655528</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-895869.8763655529</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-866219.4463655528</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-910681.3138655529</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-936012.3138655529</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-883336.5152655529</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-883202.9911655529</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-883794.9911655529</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-700036.3996655529</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-662636.3996655529</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-657794.3781655529</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-710261.1111655527</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-727924.3729655527</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-772589.4611655526</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-770914.9458655526</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-770914.9458655526</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-770398.2881655527</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-768398.2881655527</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-770908.5112655526</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
